--- a/docs/요구사항 정의서.xlsx
+++ b/docs/요구사항 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinhk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/714b7328e3c4408d/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D89FBA-1CE4-4A0B-A57D-59CA8BC8AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{A296C070-5833-4CD1-861E-76F5079C3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FECDB6-D704-4953-A4CC-480100DB67F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
   <si>
     <t>로고</t>
   </si>
@@ -420,6 +420,97 @@
       <t xml:space="preserve">
 요구사항 명세서</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0701</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0702</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0703</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0704</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0705</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0706</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0707</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성형AI</t>
+  </si>
+  <si>
+    <t>생성형AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치구별 분석 리포트 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 아이디어 제안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 Q&amp;A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라 연동(FastAPI)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 버전 비교 모드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추론 성능 로깅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 페이지 UI 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성형 AI 전용 대시보드 및 채팅/리포트 출력 영역 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인튜닝된 모델을 통해 자치구 상황에 맞는 3가지 정책 아이디어 리스트 도출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAG를 참조하여 아동 복지 정책 관련 신뢰도 높은 질의응답 기능 제공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flask 백엔드와 외부 FastAPI(RunPod) 추론 서버 간 비동기 API 통신 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base, Middle, Final 등 파인튜닝 단계별 모델 답변 비교 기능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 답변 생성 시간 및 추론 성공 여부를 DB(Chat Log)에 기록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 예측 데이터를 컨텍스트로 활용하여 3줄 요약(요약, 요인, 데이터) 형태의 분석 결과 제공계정 정보 찾기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,17 +659,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,43 +957,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25.8984375" customWidth="1"/>
-    <col min="3" max="3" width="34.19921875" customWidth="1"/>
-    <col min="4" max="4" width="132.8984375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="132.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -924,17 +1006,8 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,17 +1020,8 @@
       <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,17 +1034,8 @@
       <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,17 +1048,8 @@
       <c r="D6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1016,17 +1062,8 @@
       <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,17 +1076,8 @@
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1062,17 +1090,8 @@
       <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1082,43 +1101,25 @@
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1131,17 +1132,8 @@
       <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1151,43 +1143,25 @@
       <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -1200,44 +1174,26 @@
       <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1246,17 +1202,8 @@
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,17 +1216,8 @@
       <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,17 +1230,8 @@
       <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1245,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +1273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1354,11 +1283,11 @@
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,11 +1311,11 @@
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,21 +1343,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -1442,7 +1371,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -1452,11 +1381,11 @@
       <c r="C30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1470,8 +1399,103 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D32" s="7"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/요구사항 정의서.xlsx
+++ b/docs/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/714b7328e3c4408d/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{A296C070-5833-4CD1-861E-76F5079C3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FECDB6-D704-4953-A4CC-480100DB67F5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{17966A89-CDA3-47CF-8B3E-D5319B8717FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A9F405-5EA7-4CFA-B0C2-AE00CBCB3A58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
   <si>
     <t>로고</t>
   </si>
@@ -511,6 +511,18 @@
   </si>
   <si>
     <t>DB 예측 데이터를 컨텍스트로 활용하여 3줄 요약(요약, 요인, 데이터) 형태의 분석 결과 제공계정 정보 찾기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-0708</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 요약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 복지 정책 원문이나 긴 텍스트를 경량 모델(KoBART)을 활용하여 핵심 내용 요약 제공</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -957,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1460,13 +1472,13 @@
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,13 +1486,13 @@
         <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,9 +1503,23 @@
         <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>123</v>
       </c>
     </row>

--- a/docs/요구사항 정의서.xlsx
+++ b/docs/요구사항 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/714b7328e3c4408d/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Flaskteam_projects\flask_basic_oop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{17966A89-CDA3-47CF-8B3E-D5319B8717FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A9F405-5EA7-4CFA-B0C2-AE00CBCB3A58}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD2A6B-3354-41C6-9264-9097C95B60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +682,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1024,7 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1029,7 +1038,7 @@
       <c r="C4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1043,7 +1052,7 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1057,7 +1066,7 @@
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1071,7 +1080,7 @@
       <c r="C7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1085,7 +1094,7 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1099,7 +1108,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1113,7 +1122,7 @@
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1127,7 +1136,7 @@
       <c r="C11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1141,7 +1150,7 @@
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1155,7 +1164,7 @@
       <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1169,7 +1178,7 @@
       <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1183,7 +1192,7 @@
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1197,7 +1206,7 @@
       <c r="C16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1211,7 +1220,7 @@
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1225,7 +1234,7 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1239,7 +1248,7 @@
       <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1253,7 +1262,7 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1267,7 +1276,7 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1281,7 +1290,7 @@
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1295,7 +1304,7 @@
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1309,7 +1318,7 @@
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1323,7 +1332,7 @@
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1337,7 +1346,7 @@
       <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1351,7 +1360,7 @@
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1365,7 +1374,7 @@
       <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1379,7 +1388,7 @@
       <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1393,7 +1402,7 @@
       <c r="C30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1407,7 +1416,7 @@
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1421,7 +1430,7 @@
       <c r="C32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1435,7 +1444,7 @@
       <c r="C33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1449,7 +1458,7 @@
       <c r="C34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1463,7 +1472,7 @@
       <c r="C35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1477,7 +1486,7 @@
       <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1491,7 +1500,7 @@
       <c r="C37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1505,7 +1514,7 @@
       <c r="C38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1519,7 +1528,7 @@
       <c r="C39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>123</v>
       </c>
     </row>
